--- a/resultados/TabelaResultados.xlsx
+++ b/resultados/TabelaResultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_custo_salario_cestas\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3437315C-1571-439C-9359-97BFBE608853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C59057-6AA5-4646-A1A2-43831DFB071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC58E7D1-5F1F-4739-995F-1D0DCEA10BB9}"/>
   </bookViews>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,14 +157,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6B5420-0A01-4699-8442-E0C6EC221FCE}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,49 +577,49 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="6">
-        <v>7722</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="5">
+        <v>7306</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1">
         <v>6</v>
       </c>
-      <c r="N2" s="7">
-        <v>11218</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="8">
+        <v>8414</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="1">
@@ -630,44 +634,44 @@
       <c r="U2" s="1">
         <v>6</v>
       </c>
-      <c r="V2" s="7">
-        <v>10191</v>
+      <c r="V2" s="6">
+        <v>9343</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
-        <v>8078</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="5">
+        <v>7731</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="1">
-        <v>64</v>
+      <c r="K3" s="7">
+        <v>32</v>
       </c>
       <c r="L3" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1">
         <v>6</v>
       </c>
-      <c r="N3" s="7">
-        <v>11688</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="N3" s="8">
+        <v>8816</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="1">
         <v>48</v>
       </c>
@@ -680,44 +684,44 @@
       <c r="U3" s="1">
         <v>6</v>
       </c>
-      <c r="V3" s="7">
-        <v>10080</v>
+      <c r="V3" s="6">
+        <v>6997</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
-        <v>7571</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="5">
+        <v>7457</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
-        <v>64</v>
+      <c r="K4" s="7">
+        <v>32</v>
       </c>
       <c r="L4" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1">
         <v>6</v>
       </c>
-      <c r="N4" s="7">
-        <v>10303</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="N4" s="8">
+        <v>10523</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="1">
         <v>64</v>
       </c>
@@ -730,48 +734,48 @@
       <c r="U4" s="1">
         <v>6</v>
       </c>
-      <c r="V4" s="7">
-        <v>9443</v>
+      <c r="V4" s="6">
+        <v>6089</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
-        <v>6884</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="5">
+        <v>5049</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
-        <v>64</v>
+      <c r="K5" s="7">
+        <v>32</v>
       </c>
       <c r="L5" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1">
         <v>6</v>
       </c>
-      <c r="N5" s="7">
-        <v>8307</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
+      <c r="N5" s="8">
+        <v>6482</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="1">
@@ -786,44 +790,44 @@
       <c r="U5" s="1">
         <v>6</v>
       </c>
-      <c r="V5" s="7">
-        <v>5233</v>
+      <c r="V5" s="6">
+        <v>5052</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="6">
-        <v>6810</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="5">
+        <v>4811</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
-        <v>64</v>
+      <c r="K6" s="7">
+        <v>32</v>
       </c>
       <c r="L6" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M6" s="1">
         <v>6</v>
       </c>
-      <c r="N6" s="7">
-        <v>8847</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="N6" s="8">
+        <v>6401</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="1">
         <v>48</v>
       </c>
@@ -836,44 +840,44 @@
       <c r="U6" s="1">
         <v>6</v>
       </c>
-      <c r="V6" s="7">
-        <v>5109</v>
+      <c r="V6" s="6">
+        <v>4762</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="6">
-        <v>6110</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5">
+        <v>4884</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
-        <v>64</v>
+      <c r="K7" s="7">
+        <v>32</v>
       </c>
       <c r="L7" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="N7" s="7">
-        <v>7937</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="N7" s="8">
+        <v>6548</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="1">
         <v>64</v>
       </c>
@@ -886,87 +890,87 @@
       <c r="U7" s="1">
         <v>6</v>
       </c>
-      <c r="V7" s="7">
-        <v>5208</v>
+      <c r="V7" s="6">
+        <v>4792</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
-        <v>6787</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="5">
+        <v>6832</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="7">
-        <v>8575</v>
+      <c r="N8" s="8">
+        <v>7367</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="6">
-        <v>6600</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="5">
+        <v>6213</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1">
-        <v>32</v>
+      <c r="K9" s="7">
+        <v>64</v>
       </c>
       <c r="L9" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
       </c>
-      <c r="N9" s="7">
-        <v>7804</v>
+      <c r="N9" s="8">
+        <v>7034</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -976,100 +980,100 @@
       <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="6">
-        <v>7220</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="5">
+        <v>6116</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1">
-        <v>32</v>
+      <c r="K10" s="7">
+        <v>64</v>
       </c>
       <c r="L10" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M10" s="1">
         <v>6</v>
       </c>
-      <c r="N10" s="7">
-        <v>7314</v>
+      <c r="N10" s="8">
+        <v>6450</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="6">
-        <v>6353</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="F11" s="5">
+        <v>4367</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="1">
-        <v>32</v>
+      <c r="K11" s="7">
+        <v>64</v>
       </c>
       <c r="L11" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1">
         <v>6</v>
       </c>
-      <c r="N11" s="7">
-        <v>5811</v>
+      <c r="N11" s="8">
+        <v>4378</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="6">
-        <v>6624</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="5">
+        <v>4311</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="1">
-        <v>32</v>
+      <c r="K12" s="7">
+        <v>64</v>
       </c>
       <c r="L12" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M12" s="1">
         <v>6</v>
       </c>
-      <c r="N12" s="7">
-        <v>6370</v>
+      <c r="N12" s="8">
+        <v>4232</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -1079,25 +1083,25 @@
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="6">
-        <v>7377</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5">
+        <v>4274</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="1">
-        <v>32</v>
+      <c r="K13" s="7">
+        <v>64</v>
       </c>
       <c r="L13" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M13" s="1">
         <v>6</v>
       </c>
-      <c r="N13" s="7">
-        <v>5926</v>
+      <c r="N13" s="8">
+        <v>4372</v>
       </c>
     </row>
   </sheetData>
